--- a/doe_desc_tmpl.xlsx
+++ b/doe_desc_tmpl.xlsx
@@ -59,7 +59,7 @@
     <t>Variable 2</t>
   </si>
   <si>
-    <t>Variable 3</t>
+    <t>val_card_tye</t>
   </si>
 </sst>
 </file>
@@ -406,13 +406,13 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
